--- a/数据库与接口设计.xlsx
+++ b/数据库与接口设计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大三\HinghwaDict\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dxw\code\python\program\HinghwaDict\HinghwaDict-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F85546E-38C9-4C71-85E8-CA488EC32A9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA97DB2-13BC-408E-87D9-B971006F29EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{777A17B3-0638-4D81-8366-D42E3CD36517}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" activeTab="1" xr2:uid="{777A17B3-0638-4D81-8366-D42E3CD36517}"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="261">
   <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,10 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>like_user_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>publish_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,19 +293,16 @@
     <t>音乐编号</t>
   </si>
   <si>
+    <t>音乐的url地址</t>
+  </si>
+  <si>
+    <t>曲名</t>
+  </si>
+  <si>
+    <t>音乐封面的url地址</t>
+  </si>
+  <si>
     <t>source</t>
-  </si>
-  <si>
-    <t>音乐的url地址</t>
-  </si>
-  <si>
-    <t>曲名</t>
-  </si>
-  <si>
-    <t>音乐封面的url地址</t>
-  </si>
-  <si>
-    <t>source</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -352,18 +345,6 @@
   </si>
   <si>
     <t>评论的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -473,9 +454,6 @@
     <t>①明白；懂得；通晓：我～日语。②表示有能力做某事：呆囝～行咯|伊～开车。|△做田侬侬～，收成无平穧（种田人人会，收成不一样。农业收成与个人掌握的技术和环境条件等因素都有关）。③表示有可能实现：天时可能～落雨。④表示擅长：我～拖二胡（拉二胡）。</t>
   </si>
   <si>
-    <t>来源</t>
-  </si>
-  <si>
     <t>词语的来源地（决定了解析方式）-》用户uid</t>
   </si>
   <si>
@@ -492,10 +470,6 @@
   </si>
   <si>
     <t>相关词汇</t>
-  </si>
-  <si>
-    <t>妾。与“阿姊”连读音变不同。‖参看【阿姊】at21tsi453见下方。 
-另外的例子：同【阿骚囝】见上方。</t>
   </si>
   <si>
     <t>参见xx</t>
@@ -610,14 +584,6 @@
   </si>
   <si>
     <t>乡镇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1336,6 +1302,65 @@
   </si>
   <si>
     <t>更新（注意权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>town</t>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>like_users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妾。与“阿姊”连读音变不同。‖参看【阿姊】at21tsi453见下方。 
+另外的例子：同【阿骚囝】见上方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manytomany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>like_articles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜爱文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和article的like_users对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contributor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献者id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1841,60 +1866,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD22D3B-3B25-491B-9808-9167624D1E92}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="14" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="32.375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="14" customWidth="1"/>
     <col min="4" max="4" width="18" style="14" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="14" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="14" customWidth="1"/>
     <col min="6" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="14" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1905,13 +1930,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
@@ -1928,280 +1953,280 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="138" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="138" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="D30" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="114" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="57" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="B36" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
     </row>
   </sheetData>
@@ -2214,21 +2239,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E4441F-FF47-4140-8F54-84A9285C5771}">
   <dimension ref="A2:G95"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2239,7 +2266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -2248,7 +2275,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -2257,7 +2284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -2266,7 +2293,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -2275,7 +2302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -2286,7 +2313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -2297,7 +2324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -2306,7 +2333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2317,7 +2344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -2328,7 +2355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>58</v>
       </c>
@@ -2339,39 +2366,53 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="C15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2382,7 +2423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2390,7 +2431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -2401,7 +2442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -2410,15 +2451,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2430,7 +2471,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2440,19 +2481,19 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -2464,7 +2505,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -2476,21 +2517,21 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>14</v>
@@ -2500,9 +2541,9 @@
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>14</v>
@@ -2512,7 +2553,7 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -2523,9 +2564,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>37</v>
@@ -2535,9 +2576,9 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>37</v>
@@ -2549,73 +2590,73 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
@@ -2624,139 +2665,139 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B45" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C45" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+    </row>
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2765,7 +2806,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -2777,12 +2818,12 @@
         <v>32</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -2793,26 +2834,26 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>37</v>
@@ -2821,102 +2862,102 @@
         <v>32</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>61</v>
       </c>
@@ -2924,14 +2965,14 @@
         <v>33</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2940,92 +2981,92 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C76" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="C80" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="C81" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C82" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C83" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D83" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>9</v>
@@ -3034,112 +3075,112 @@
         <v>32</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="4" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="C94" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="C95" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/数据库与接口设计.xlsx
+++ b/数据库与接口设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dxw\code\python\program\HinghwaDict\HinghwaDict-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA97DB2-13BC-408E-87D9-B971006F29EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1DC243-560E-41C6-98EA-EEBF6CE5A7AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" activeTab="1" xr2:uid="{777A17B3-0638-4D81-8366-D42E3CD36517}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{777A17B3-0638-4D81-8366-D42E3CD36517}"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="264">
   <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -962,10 +962,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/words/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -978,12 +974,6 @@
   <si>
     <t>【功能】更改字词的内容
 【参数】字典word（含word表的所有字段）
-【返回】无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【功能】更新用户信息（除password外）
-【参数】字典类型user
 【返回】无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1361,6 +1351,28 @@
   </si>
   <si>
     <t>贡献者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与word的related_articles相对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>related_words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【功能】更新用户信息（除password外）
+【参数】字典类型user
+【返回】字符串token</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1864,370 +1876,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD22D3B-3B25-491B-9808-9167624D1E92}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="18" style="14" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="14"/>
+    <col min="1" max="2" width="9" style="14"/>
+    <col min="3" max="3" width="14.77734375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="18" style="14" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C2" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C3" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:7" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="F8" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>1</v>
+      </c>
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="138" x14ac:dyDescent="0.25">
+      <c r="C14" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="138" x14ac:dyDescent="0.25">
+      <c r="C15" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="C16" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="C17" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="C19" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="C20" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="C22" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="C23" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="C24" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="C25" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="C26" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="C29" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="138" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="E29" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="C32" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="C33" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="138" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="F33" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="C35" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="C36" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C35" s="14" t="s">
+      <c r="D36" s="17" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B36" s="17" t="s">
+      <c r="F36" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2239,8 +2288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E4441F-FF47-4140-8F54-84A9285C5771}">
   <dimension ref="A2:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2368,18 +2417,18 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C15" t="s">
         <v>123</v>
@@ -2387,7 +2436,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C16" t="s">
         <v>124</v>
@@ -2395,16 +2444,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B17" t="s">
-        <v>254</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2486,7 +2535,7 @@
         <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
@@ -2519,10 +2568,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>48</v>
@@ -2601,6 +2650,17 @@
         <v>45</v>
       </c>
       <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
@@ -2872,13 +2932,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>101</v>
@@ -2924,7 +2984,7 @@
         <v>116</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>106</v>
@@ -2933,7 +2993,7 @@
         <v>119</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>107</v>
@@ -2945,7 +3005,7 @@
         <v>117</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>108</v>
@@ -3019,7 +3079,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C80" t="s">
         <v>123</v>
@@ -3027,7 +3087,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C81" t="s">
         <v>124</v>
@@ -3049,12 +3109,12 @@
         <v>127</v>
       </c>
       <c r="D83" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3066,7 +3126,7 @@
         <v>8</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>9</v>
@@ -3080,7 +3140,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3089,87 +3149,87 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C94" t="s">
         <v>123</v>
@@ -3177,7 +3237,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C95" t="s">
         <v>124</v>

--- a/数据库与接口设计.xlsx
+++ b/数据库与接口设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dxw\code\python\program\HinghwaDict\HinghwaDict-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1DC243-560E-41C6-98EA-EEBF6CE5A7AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9829EE98-C461-48DD-9115-6A5B7F9D8F8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{777A17B3-0638-4D81-8366-D42E3CD36517}"/>
   </bookViews>
@@ -1878,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD22D3B-3B25-491B-9808-9167624D1E92}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/数据库与接口设计.xlsx
+++ b/数据库与接口设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dxw\code\python\program\HinghwaDict\HinghwaDict-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9829EE98-C461-48DD-9115-6A5B7F9D8F8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076BA2A3-E821-4930-B857-59706ABBA887}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{777A17B3-0638-4D81-8366-D42E3CD36517}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="265">
   <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1373,6 +1373,10 @@
     <t>【功能】更新用户信息（除password外）
 【参数】字典类型user
 【返回】字符串token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(除 GET)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1878,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD22D3B-3B25-491B-9808-9167624D1E92}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2060,6 +2064,12 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="138" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
       <c r="C14" s="14" t="s">
         <v>154</v>
       </c>
@@ -2074,6 +2084,12 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="138" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>1</v>
+      </c>
+      <c r="B15" s="14">
+        <v>1</v>
+      </c>
       <c r="C15" s="14" t="s">
         <v>155</v>
       </c>
@@ -2088,6 +2104,12 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>1</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1</v>
+      </c>
       <c r="C16" s="14" t="s">
         <v>161</v>
       </c>
@@ -2098,7 +2120,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>1</v>
+      </c>
+      <c r="B17" s="14">
+        <v>1</v>
+      </c>
       <c r="C17" s="14" t="s">
         <v>177</v>
       </c>
@@ -2112,7 +2140,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="3:7" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="C19" s="14" t="s">
         <v>181</v>
       </c>
@@ -2123,7 +2151,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="3:7" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="C20" s="14" t="s">
         <v>190</v>
       </c>
@@ -2137,7 +2165,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="3:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="C22" s="14" t="s">
         <v>136</v>
       </c>
@@ -2145,7 +2173,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="3:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="C23" s="14" t="s">
         <v>231</v>
       </c>
@@ -2156,7 +2184,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="C24" s="14" t="s">
         <v>164</v>
       </c>
@@ -2167,7 +2195,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="C25" s="14" t="s">
         <v>165</v>
       </c>
@@ -2178,7 +2206,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="C26" s="14" t="s">
         <v>166</v>
       </c>
@@ -2189,7 +2217,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="3:7" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="C27" s="14" t="s">
         <v>167</v>
       </c>
@@ -2200,7 +2228,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="C29" s="14" t="s">
         <v>198</v>
       </c>
@@ -2211,7 +2239,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="C30" s="14" t="s">
         <v>199</v>
       </c>
@@ -2222,7 +2250,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="3:7" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="C32" s="14" t="s">
         <v>204</v>
       </c>
@@ -2281,6 +2309,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
